--- a/季报汇总-2024-07-18.xlsx
+++ b/季报汇总-2024-07-18.xlsx
@@ -724,7 +724,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -908,7 +908,34 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="14" customHeight="1"/>
+    <row r="7" ht="14" customHeight="1">
+      <c r="B7" s="34" t="inlineStr">
+        <is>
+          <t>688721.SH</t>
+        </is>
+      </c>
+      <c r="C7" s="29">
+        <f t="array" ref="C7">[1]!s_info_name(B7)</f>
+        <v/>
+      </c>
+      <c r="D7" s="39">
+        <f t="array" ref="D7">[1]!s_info_industry_sw_2021(B7,"",1)</f>
+        <v/>
+      </c>
+      <c r="E7" s="31">
+        <f t="array" ref="E7">IF([1]!s_info_industry_sw_2021(B7,"",2)="消费电子",分工!$E$4,VLOOKUP(D7,分工!$B$2:'分工'!$C$32,2,0))</f>
+        <v/>
+      </c>
+      <c r="F7" s="35" t="inlineStr">
+        <is>
+          <t>预计2024-01-01到2024-06-30业绩：净利润4800.00万元至5000.00万元;增长幅度为19.41%至24.39%;</t>
+        </is>
+      </c>
+      <c r="G7" s="33">
+        <f>IFERROR(VLOOKUP(C7,重点公司!$C$2:$E$800,2,FALSE),0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="8" ht="14" customHeight="1"/>
     <row r="9" ht="14" customHeight="1"/>
     <row r="10" ht="14" customHeight="1"/>
